--- a/pred_ohlcv/54_21/2019-11-01 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1826474.818</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1825400.0725</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2435309.6388</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2313408.8381</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2404419.4635</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2404419.4635</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2331424.6469</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-4443217.936663338</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-6521246.51796334</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-6396473.505963339</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-7488663.67327618</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-7165247.486176181</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2088363.223</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2085533.5578</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2075533.5578</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2154084.906</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-503484.963</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2435309.6388</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2313408.8381</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2404419.4635</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2845908.2799</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2270719.1764</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2308043.9457</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2515615.5825</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2331424.6469</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1970932.8223</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1962417.498863337</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-2056587.510963337</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-5106247.385463339</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-4973207.223763339</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-5981807.450663339</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-6521246.51796334</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-6396473.505963339</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-7488663.67327618</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-7388694.60367618</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-7487888.29877618</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-7244989.238976181</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-7439084.995376181</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-7280477.27137618</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-7409403.283276181</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-7039000.38657618</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-7265082.40157618</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-7000773.78997618</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-7000773.78997618</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-7111184.133876179</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-6223804.53447618</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-6118058.879957272</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-6274579.481557271</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-6274479.481557271</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-6588724.783957272</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-6713701.851757272</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-6881663.731557272</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-6686533.931857272</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-6559011.554257272</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-6786478.985557272</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-6449835.038457273</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-6159422.407257273</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-6159422.407257273</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-6407886.447657273</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-6407886.447657273</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-6507365.040057274</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
